--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\09. contractno\Case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD1545B-1483-4A70-81F4-0B68D6AA8D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E69733-26C9-48BA-B839-D3BED10261B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1305" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>Auto_HY_003</t>
   </si>
   <si>
-    <t>Auto_HY_003</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -801,10 +801,10 @@
     </row>
     <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E69733-26C9-48BA-B839-D3BED10261B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FEAC63-49FC-40E3-A347-9136F3DBEE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t>Auto_HY_003</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\09. contractno\Case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DC1505-53FC-47BF-B8E6-8278515D271E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2035D355-2F47-4D7E-9AEF-2698A9B2BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,17 +234,17 @@
     <t/>
   </si>
   <si>
-    <t>Auto_HY_003</t>
+    <t>2024-04-16</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>al66k9ask</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -257,6 +257,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF3F4254"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -287,6 +293,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -305,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -799,12 +808,12 @@
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
     </row>
-    <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>69</v>
+    <row r="2" spans="1:50 16383:16384" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\09. contractno\Case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2035D355-2F47-4D7E-9AEF-2698A9B2BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC8479-F8C8-445E-8879-B7B4EAD598A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>al66k9ask</t>
   </si>
   <si>
-    <t>al66k9ask</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -810,10 +810,10 @@
     </row>
     <row r="2" spans="1:50 16383:16384" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>

--- a/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case1/Auto_ContractNo_Case1_C12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC8479-F8C8-445E-8879-B7B4EAD598A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B91221-B7D7-4EE1-B7B7-A04995587B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t>al66k9ask</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
